--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7786,7 +7787,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -7802,6 +7802,5034 @@
       </c>
       <c r="H112" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H132"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>201.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6867</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>113.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.8517</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>65.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2038</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.0055</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7849</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011236</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>61.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.1006</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>48.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.0225</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.9278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>28.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8929</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>34.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8241</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010347</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>农银汇理策略收益一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>59.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8025</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>54.47</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6798</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6225</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>33.63</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5941</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>530003</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>建信优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2910</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.72</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2618</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>34.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2366</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010286</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0813</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0487</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.53</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9389</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.77</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.49</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9108</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>20.85</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8569</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8557</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>200008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城品牌优选混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>28.84</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.8277</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.7596</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.7505</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>海富通精选混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>13.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>18.13</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6726</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001210</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>天弘互联网灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6534</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011169</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信臻选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>47.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21.66</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5711</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.56</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>74.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5664</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010220</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5411</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>14.91</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5293</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>9.71</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.5195</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.5190</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009986</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5154</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4812</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>501083</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银华科创主题 3 年封闭运作灵活配置混合型证券投资</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>62.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4597</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519056</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通内需热点混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4585</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>15.81</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4411</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.11</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011237</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根行业睿选股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.59</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011336</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>38.59</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4091</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3927</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>17.02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>48.67</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3102</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>660005</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>农银中小盘混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001901</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2900</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2804</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>66.23</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2773</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>70.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2586</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519015</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>海富通精选贰号混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>76.90</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2585</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2580</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2490</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>86.83</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2474</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>206003</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>23.21</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>217001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商安泰混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>77.08</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010421</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2271</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001192</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>上投摩根整合驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2247</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2180</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>217012</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>招商行业领先混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1977</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>373010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1833</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1654</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1627</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1626</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1580</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>373020</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>上投摩根双核平衡混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>67.74</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1507</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1461</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1346</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1331</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>000524</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>上投摩根民生需求股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1148</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010287</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>海富通成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1108</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>530012</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>建信积极配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>47.26</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>007047</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>长城核心优势混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1019</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008260</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城价值优选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>000547</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>建信健康民生混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0946</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010981</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.23</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010221</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>海富通消费核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0780</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>377150</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>上投摩根健康品质生活混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.13</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0662</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>673030</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>西部利得多策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>009987</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010422</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>海富通消费优选混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>69.78</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006251</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华兴盛股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>200016</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长城稳健成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>80.09</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>200015</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长城优化升级混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.12</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>72.71</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001482</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>上投摩根新兴服务股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>80.78</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>70.31</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>82.56</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011337</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>兴全汇吉一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>002512</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>长城久润混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010982</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>兴全汇虹一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>20.04</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>46.66</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001902</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源沪港深隆鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>44.68</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>206004</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏华信用增利债券 - B</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>000887</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>上投摩根稳进回报混合</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>29.71</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>163821</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>中银沪深300等权重指数(LOF)</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>006785</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东方量化多策略混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>960028</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>建信优选成长混合H</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>67.72</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>960005</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>上投摩根双息平衡混合H</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>55.71</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>960019</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>招商行业领先混合H</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12835,4 +12836,1542 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.5813</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0782</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.9539</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.9273</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7596</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.5459</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1222</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8795</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.3341</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>29.04</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2516</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9857</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8476</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7815</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6059</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>69.58</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5840</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5380</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3651</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3358</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3289</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3045</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1895</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1564</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.05</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>55.58</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006524</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006525</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股指数C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14374,4 +14375,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>131</v>
+      </c>
+      <c r="D3" t="n">
+        <v>73.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>111</v>
+      </c>
+      <c r="D4" t="n">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>80</v>
+      </c>
+      <c r="D5" t="n">
+        <v>55.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14383,7 +14384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14394,17 +14395,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -14414,14 +14435,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>39</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.49</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.4849</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -14430,14 +14473,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>131</v>
-      </c>
-      <c r="D3" t="n">
-        <v>73.77</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.9328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -14446,14 +14511,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>111</v>
-      </c>
-      <c r="D4" t="n">
-        <v>71.47</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6063</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -14462,13 +14549,2655 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>70.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.5485</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>73.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2843</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>75.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9807</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>72.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5350</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4394</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.46</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2905</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0763</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>47.29</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.9909</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.26</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>501202</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9804</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.94</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9091</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8986</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009663</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华泰紫金科技创新3年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>55.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8330</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>18.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8131</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7019</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6885</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>17.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6506</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6468</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>519017</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成积极成长混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>13.47</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4580</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4431</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19.82</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>48.34</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4380</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4309</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4280</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3524</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3277</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3125</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.84</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2869</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2583</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>501076</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华科创主题3年封闭灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.45</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>34.65</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2270</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>74.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2267</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1594</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.44</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1202</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010617</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>96.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0963</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>22.22</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000551</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信诚幸福消费混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010618</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>兴业消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.43</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001495</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>东方新价值混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>000327</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>南方潜力新蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>002162</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方新价值混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>43.81</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>89.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>009527</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>浙商汇金新兴消费灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.00</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>004166</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>007686</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方价值挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014641</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2" t="n">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>131</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>111</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>80</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>55.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17096,7 +17097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17107,17 +17108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -17127,14 +17148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" t="n">
-        <v>55.04</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>69.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3207</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -17143,14 +17186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>39</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.49</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.9346</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -17159,14 +17224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>131</v>
-      </c>
-      <c r="D4" t="n">
-        <v>73.77</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -17175,14 +17262,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>111</v>
-      </c>
-      <c r="D5" t="n">
-        <v>71.47</v>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.3068</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -17191,13 +17300,2409 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>56.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9697</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>59.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.5781</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>50.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.3743</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7735</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010108</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城核心招景混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>54.59</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6650</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010027</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>景顺长城核心中景一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>53.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6642</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1040</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9576</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.62</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9556</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.91</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7862</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6594</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>21.68</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.19</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6114</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5634</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5538</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4902</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.93</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4677</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4416</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3070</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005063</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2943</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.00</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2413</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2276</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>71.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2219</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1828</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1777</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005064</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器指数C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1604</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.03</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006976</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鹏华核心优势混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0912</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0886</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>000587</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>大成灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0777</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003663</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华兴泰定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>003780</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鹏华兴悦定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>28.77</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>24.46</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>004456</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴银消费新趋势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>64</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>70</v>
+      </c>
+      <c r="D3" t="n">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>39</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.49</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>131</v>
+      </c>
+      <c r="D5" t="n">
+        <v>73.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>111</v>
+      </c>
+      <c r="D6" t="n">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>80</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>55.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19585,7 +19586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19596,17 +19597,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19616,14 +19637,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>64</v>
-      </c>
-      <c r="D2" t="n">
-        <v>44.31</v>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>72.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9831</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -19632,14 +19675,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>70</v>
-      </c>
-      <c r="D3" t="n">
-        <v>55.04</v>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.8037</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -19648,14 +19713,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>39</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.49</v>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.5593</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -19664,14 +19751,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>131</v>
-      </c>
-      <c r="D5" t="n">
-        <v>73.77</v>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9845</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -19680,14 +19789,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>111</v>
-      </c>
-      <c r="D6" t="n">
-        <v>71.47</v>
+          <t>011099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国价值创造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>65.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8698</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -19696,13 +19827,3183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>377240</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>84.89</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.7674</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519915</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>76.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6434</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>上投摩根远见两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>64.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4060</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006179</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国品质生活混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>39.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.6041</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>30.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5795</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012255</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国高质量混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.46</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.2297</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.0332</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.60</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9213</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>25.82</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8882</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011309</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国消费主题混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7490</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008901</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国内需增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7332</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010409</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国消费精选30股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6272</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009190</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城核心优选一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.09</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6172</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.32</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6169</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5557</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>040011</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华安核心混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4917</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.78</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4460</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3704</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013047</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3681</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>25.24</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3629</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3482</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003713</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2637</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011153</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2635</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001319</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>农银汇理信息传媒主题股票</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2403</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2378</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>506007</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发科创板两年定开混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.89</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1993</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011100</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国价值创造混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011314</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>农银汇理创新成长混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1809</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>519664</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1277</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1252</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>003714</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>英大睿盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004341</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>农银汇理尖端科技灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1023</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0986</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0902</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>960007</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>24.78</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001327</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>519665</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>银河美丽优萃混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0342</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519197</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家颐达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.56</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014642</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>上投摩根新兴动力混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>35.70</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信价值启航混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>28.93</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001328</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华弘华灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>33.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>570007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>诺德优选30混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>85.59</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009096</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006759</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>银河乐活优萃混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011154</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001657</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>长安鑫富领先灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.94</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014598</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>永赢合享混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013045</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>004937</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中航混改精选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009097</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华安泽混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014599</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>永赢合享混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>24.61</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004936</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中航混改精选混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>015731</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>44.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>44.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>70</v>
+      </c>
+      <c r="D4" t="n">
+        <v>55.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.49</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>131</v>
+      </c>
+      <c r="D6" t="n">
+        <v>73.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>111</v>
+      </c>
+      <c r="D7" t="n">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>80</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>55.26</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D2" t="n">
-        <v>44.98</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D3" t="n">
-        <v>44.31</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D4" t="n">
-        <v>55.04</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D5" t="n">
-        <v>36.49</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D6" t="n">
-        <v>73.77</v>
+        <v>36.49</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D7" t="n">
-        <v>71.47</v>
+        <v>73.77</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>111</v>
+      </c>
+      <c r="D8" t="n">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>80</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>55.26</v>
       </c>
     </row>
@@ -600,6 +617,1692 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9349</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.4536</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7101</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安沪港深机会混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3325</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008979</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家民丰回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>18.51</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>29.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2888</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2038</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2003</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2002</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1929</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1349</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1046</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0820</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0810</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001331</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>28.62</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001332</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>鹏华弘信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>31.16</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>64.66</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3883,7 +5586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6371,7 +8074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9083,7 +10786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10621,7 +12324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15649,7 +17352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19916,7 +21619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688169-石头科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="D2" t="n">
-        <v>14.98</v>
+        <v>13.28</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D3" t="n">
-        <v>44.98</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>44.31</v>
+        <v>44.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D5" t="n">
-        <v>55.04</v>
+        <v>44.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D6" t="n">
-        <v>36.49</v>
+        <v>55.04</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D7" t="n">
-        <v>73.77</v>
+        <v>36.49</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="D8" t="n">
-        <v>71.47</v>
+        <v>73.77</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,3126 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>111</v>
+      </c>
+      <c r="D9" t="n">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>80</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>55.26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>588000</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>124.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3196</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260116</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1068</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城核心竞争力混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>32.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1068</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.0889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>63.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9631</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>588080</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>65.18</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8027</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>33.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>76.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.2378</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1771</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.82</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1588</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>260110</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城精选蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>43.72</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0723</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>588050</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.0619</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>588090</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证科创板50成份ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>49.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0385</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>38.37</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0144</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519008</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富优势精选混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.42</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4297</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000173</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富美丽30混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2437</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.0311</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>377020</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>上投摩根内需动力混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9787</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9636</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8695</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>375010</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根中国优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>18.43</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.8607</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8001</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>27.98</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7527</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>400003</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>东方精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7256</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>378010</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>上投摩根成长先锋混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>20.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.06</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6323</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>12.79</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6293</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009695</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5925</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>377530</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>960006</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>上投摩根行业轮动混合H</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5803</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>370024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>上投摩根核心优选混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5405</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商大盘蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4861</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001869</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4614</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>240001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华宝宝康消费品混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4145</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001103</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>前海开源工业革命4.0灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>43.62</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3252</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2319</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>530006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>建信核心精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2124</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2102</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008313</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信研究精选混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001088</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华宝国策导向混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009937</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.10</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2069</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>165313</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>建信优势动力混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2048</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005596</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1793</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>400001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>东方龙混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004569</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商制造业转型灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009696</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>招商成长精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1590</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001473</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>建信大安全战略精选股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002249</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商境远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1041</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002420</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富盈鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0931</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>000006</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>002456</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.09</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000966</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中邮核心科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0339</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002457</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商安元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>22.15</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002296</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城行业轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002152</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华宝核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.41</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009938</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>东方欣益一年持有期偏债混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001983</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中邮低碳经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005597</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>建信战略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>002654</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>上投摩根策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011228</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>西部利得量化成长混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.50</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +3730,2070 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011058</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>48.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8260</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001975</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城环保优势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>40.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2301</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260101</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城优选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>44.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1113</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006435</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8184</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009376</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城成长领航混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159996</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011059</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城成长龙头一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>590008</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中邮战略新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001678</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>英大国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001583</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2480</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>560880</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011905</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>安信价值启航混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2024</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>379010</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1952</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>260111</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城公司治理混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1593</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011726</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>安信新常态沪港深精选股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008477</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>安信价值驱动三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000326</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>南方中小盘成长股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1244</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011196</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005593</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008602</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>561120</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证全指家用电器ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>562500</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003142</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012461</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012462</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159770</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>天弘中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001325</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华弘和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013054</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011906</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>安信价值启航混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159730</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>博时国证龙头家电ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>003446</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>562360</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华中证机器人ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003447</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>英大睿鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011197</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>上投摩根优势成长混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001185</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013053</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>天弘国证龙头家电指数A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>95.30</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001535</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007945</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>景顺长城改革机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>43.79</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007288</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003143</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>鹏华弘达灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>39.70</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008603</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>方正富邦新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.26</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002029</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>安信动态策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007287</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>合煦智远消费主题股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.65</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>017178</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>上投摩根中小盘混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>016418</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>上投摩根创新商业模式灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>016919</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>上投摩根智慧互联股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2302,7 +7479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5586,7 +10763,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8074,7 +13251,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10786,7 +15963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12324,7 +17501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17352,7 +22529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21617,3100 +26794,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>588000</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>124.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.43</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>5.3196</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260116</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>3.1068</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>960008</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城核心竞争力混合H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>32.43</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>89.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.58</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>3.1068</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001975</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城环保优势股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>62.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>3.0889</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>260101</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城优选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>63.86</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>77.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.9631</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>588080</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>易方达上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>65.18</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.31</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.30</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>2.8027</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>506006</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>汇添富科创板2年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>33.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>76.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.66</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>2.2378</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006435</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城创新成长混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>92.13</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2.1771</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>320003</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>诺安先锋混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>34.82</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>91.04</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2.1588</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>260110</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城精选蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>43.72</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>91.42</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>2.0723</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>588050</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>工银瑞信上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>49.21</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>98.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2.0619</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>588090</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞上证科创板50成份ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>49.84</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.13</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>2.0385</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009376</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城成长领航混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>38.37</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>91.19</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>2.0144</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>519008</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>汇添富优势精选混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>32.42</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>1.4297</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000173</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>汇添富美丽30混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>28.33</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.13</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>1.2437</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001042</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>华夏领先股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>17.33</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>1.0311</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>377020</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>上投摩根内需动力混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>31.88</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.9787</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>360006</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>光大保德信新增长混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>20.16</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>89.16</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.9636</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001178</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源再融资主题精选股票</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>80.64</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.8695</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>375010</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>上投摩根中国优势混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>18.43</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>88.19</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.8607</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>28.78</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>58.26</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.8001</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>506005</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时科创板三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>27.98</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>79.49</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.7527</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>400003</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>东方精选混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.32</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.7256</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>378010</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>上投摩根成长先锋混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>20.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>85.06</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.6323</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>960033</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>农银消费主题混合H</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.6293</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>660012</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>农银消费主题混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>12.79</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.11</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.6293</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>009695</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>11.18</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.5925</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>377530</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.5803</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>960006</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>上投摩根行业轮动混合H</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>9.30</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>91.83</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>6.24</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.5803</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>370024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>上投摩根核心优选混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>94.11</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.5405</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>217010</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>招商大盘蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>9.94</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>88.70</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.4861</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>001869</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>招商制造业转型灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>11.77</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.4614</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>160211</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>国泰中小盘成长混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>10.06</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.17</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.4567</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>240001</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华宝宝康消费品混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>16.78</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>74.57</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.4145</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>001103</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>前海开源工业革命4.0灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>6.79</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>43.62</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.3252</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>008657</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新混合</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.2319</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>003493</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.2306</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>530006</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>建信核心精选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>4.71</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>79.69</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.2124</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>001749</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>招商中国机遇股票</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.2102</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>008313</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>光大保德信研究精选混合</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>94.75</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.2082</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>001088</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>华宝国策导向混合</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.2075</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>009937</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合A</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>17.10</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.2069</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>165313</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>建信优势动力混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>90.31</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0.2048</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>501098</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>3.89</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>87.72</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>4.75</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0.1848</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>005596</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>建信战略精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>4.20</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0.1793</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>400001</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>东方龙混合</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0.1665</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>004569</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>招商制造业转型灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>4.07</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>89.28</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0.1595</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>009696</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>招商成长精选一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>88.06</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0.1590</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>001473</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>建信大安全战略精选股票</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>83.76</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0.1413</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0.1375</t>
-        </is>
-      </c>
-      <c r="H51" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>000073</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>上投摩根成长动力混合</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>90.40</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0.1304</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>002249</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>招商境远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>3.07</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>88.10</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>4.15</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0.1274</t>
-        </is>
-      </c>
-      <c r="H53" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>009598</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>77.24</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>2.63</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0.1041</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>002420</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>汇添富盈鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>93.45</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0.1037</t>
-        </is>
-      </c>
-      <c r="H55" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>3.22</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0.0931</t>
-        </is>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>001858</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>建信鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0.0916</t>
-        </is>
-      </c>
-      <c r="H57" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>000006</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>11.01</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0.0848</t>
-        </is>
-      </c>
-      <c r="H58" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>620007</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0.0659</t>
-        </is>
-      </c>
-      <c r="H59" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>001375</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>金元顺安优质精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>74.21</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0.0613</t>
-        </is>
-      </c>
-      <c r="H60" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>002456</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>招商安元灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0.0517</t>
-        </is>
-      </c>
-      <c r="H61" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>003512</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>申万菱信安鑫优选混合C</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>25.09</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H62" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>000966</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>中邮核心科技创新灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>90.49</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0.0393</t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>2.65</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0.0339</t>
-        </is>
-      </c>
-      <c r="H64" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>002457</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>招商安元灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>22.15</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>0.0314</t>
-        </is>
-      </c>
-      <c r="H65" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>002296</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>长城行业轮动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>002152</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>华宝核心优势灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>89.41</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>0.0290</t>
-        </is>
-      </c>
-      <c r="H67" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>009938</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>东方欣益一年持有期偏债混合C</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>26.31</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.0271</t>
-        </is>
-      </c>
-      <c r="H68" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>001983</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>中邮低碳经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>89.68</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>3.69</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.0269</t>
-        </is>
-      </c>
-      <c r="H69" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>001613</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>长城久祥灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>86.81</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>5.13</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>0.0256</t>
-        </is>
-      </c>
-      <c r="H70" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>0.0245</t>
-        </is>
-      </c>
-      <c r="H71" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>005597</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>建信战略精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>82.18</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>002654</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>上投摩根策略精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>80.15</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>0.0084</t>
-        </is>
-      </c>
-      <c r="H73" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>007287</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票A</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H74" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>001743</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>诺安优选回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>7.96</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H75" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>006157</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>财通量化核心优选混合</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>93.95</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H76" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>004790</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H77" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>011228</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>西部利得量化成长混合C</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>91.50</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>0.0021</t>
-        </is>
-      </c>
-      <c r="H78" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>007288</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>合煦智远消费主题股票C</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>83.19</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>2.90</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H79" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>004791</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>富荣中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>94.43</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>2.39</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H80" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>